--- a/Back End/work_items_due_dates.xlsx
+++ b/Back End/work_items_due_dates.xlsx
@@ -1,28 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\afooladray\source\repos\FGF-ItCaseComp\Back End\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C9873F9-B727-47A2-8625-5C637DA30E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23010" yWindow="2550" windowWidth="14400" windowHeight="7815" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="This Friday" sheetId="1" r:id="rId1"/>
     <sheet name="Next Friday" sheetId="2" r:id="rId2"/>
     <sheet name="Friday After Next" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="37">
   <si>
     <t>ID</t>
   </si>
@@ -54,31 +48,82 @@
     <t>New</t>
   </si>
   <si>
+    <t>Preet Patel</t>
+  </si>
+  <si>
     <t>2024-11-29T00:00:00Z</t>
   </si>
   <si>
-    <t>Preet Patel</t>
-  </si>
-  <si>
     <t>3 - Medium</t>
   </si>
   <si>
-    <t>Bug | Critical | Performance Degradation</t>
-  </si>
-  <si>
-    <t>Priththiha Nemikumar</t>
+    <t>Creating BRD</t>
+  </si>
+  <si>
+    <t>Planning</t>
+  </si>
+  <si>
+    <t>Design Start</t>
+  </si>
+  <si>
+    <t>TEST_05: Strawberry</t>
+  </si>
+  <si>
+    <t>TEST_04: Testing Sandwiches</t>
+  </si>
+  <si>
+    <t>TEST_03: Coffee Cake</t>
+  </si>
+  <si>
+    <t>TEST_02: Something</t>
+  </si>
+  <si>
+    <t>TEST_01: Introduction</t>
+  </si>
+  <si>
+    <t>Gather Design</t>
+  </si>
+  <si>
+    <t>In Progress</t>
+  </si>
+  <si>
+    <t>Kamini Patel</t>
+  </si>
+  <si>
+    <t>Kenneth Kui</t>
+  </si>
+  <si>
+    <t>Arian Fooladray</t>
   </si>
   <si>
     <t>2024-12-06T00:00:00Z</t>
   </si>
   <si>
+    <t>2024-12-02T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2024-12-05T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2024-12-04T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2024-12-03T00:00:00Z</t>
+  </si>
+  <si>
+    <t>Something something</t>
+  </si>
+  <si>
+    <t>Design Finalize</t>
+  </si>
+  <si>
     <t>Bug | Critical | Login Error</t>
   </si>
   <si>
-    <t>In Progress</t>
-  </si>
-  <si>
-    <t>Kenneth Kui</t>
+    <t>2024-12-07T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2024-12-13T00:00:00Z</t>
   </si>
   <si>
     <t>2024-12-12T00:00:00Z</t>
@@ -87,8 +132,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,21 +202,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -209,7 +246,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -243,7 +280,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -278,10 +314,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -454,14 +489,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -487,7 +522,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>940</v>
       </c>
@@ -497,11 +532,14 @@
       <c r="C2" t="s">
         <v>9</v>
       </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -516,14 +554,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -549,9 +587,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8">
       <c r="A2">
-        <v>931</v>
+        <v>992</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
@@ -560,19 +598,200 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <v>990</v>
+      </c>
+      <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="E2" t="s">
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <v>1005</v>
+      </c>
+      <c r="B4" t="s">
         <v>15</v>
       </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2">
-        <v>3</v>
-      </c>
-      <c r="H2" t="s">
-        <v>12</v>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>988</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>987</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <v>986</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <v>985</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <v>984</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10">
+        <v>991</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -581,26 +800,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="A1:H2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="3.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.453125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -626,29 +833,75 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8">
       <c r="A2">
+        <v>993</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <v>1006</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
         <v>960</v>
       </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2">
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4">
         <v>1</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H4" t="s">
         <v>12</v>
       </c>
     </row>

--- a/Back End/work_items_due_dates.xlsx
+++ b/Back End/work_items_due_dates.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="46">
   <si>
     <t>ID</t>
   </si>
@@ -42,91 +42,118 @@
     <t>Severity</t>
   </si>
   <si>
+    <t>TEST_05: Strawberry</t>
+  </si>
+  <si>
+    <t>TEST_04: Testing Sandwiches</t>
+  </si>
+  <si>
+    <t>TEST_03: Coffee Cake</t>
+  </si>
+  <si>
+    <t>TEST_02: Something</t>
+  </si>
+  <si>
+    <t>TEST_01: Introduction</t>
+  </si>
+  <si>
+    <t>Creating BRD</t>
+  </si>
+  <si>
+    <t>Planning</t>
+  </si>
+  <si>
+    <t>Design Start</t>
+  </si>
+  <si>
+    <t>Gather Design</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>In Progress</t>
+  </si>
+  <si>
+    <t>Kenneth Kui</t>
+  </si>
+  <si>
+    <t>Kamini Patel</t>
+  </si>
+  <si>
+    <t>2024-12-06T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2024-12-05T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2024-12-04T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2024-12-03T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2024-12-02T00:00:00Z</t>
+  </si>
+  <si>
+    <t>Preet Patel</t>
+  </si>
+  <si>
+    <t>QA | Sure, whatever</t>
+  </si>
+  <si>
+    <t>Something something</t>
+  </si>
+  <si>
+    <t>Design Finalize</t>
+  </si>
+  <si>
+    <t>Bug | Critical | Login Error</t>
+  </si>
+  <si>
+    <t>2024-12-13T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2024-12-07T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2024-12-12T00:00:00Z</t>
+  </si>
+  <si>
+    <t>3 - Medium</t>
+  </si>
+  <si>
     <t>Bug | Minor | Performance Degradation</t>
   </si>
   <si>
-    <t>New</t>
-  </si>
-  <si>
-    <t>Preet Patel</t>
-  </si>
-  <si>
-    <t>2024-11-29T00:00:00Z</t>
-  </si>
-  <si>
-    <t>3 - Medium</t>
-  </si>
-  <si>
-    <t>Creating BRD</t>
-  </si>
-  <si>
-    <t>Planning</t>
-  </si>
-  <si>
-    <t>Design Start</t>
-  </si>
-  <si>
-    <t>TEST_05: Strawberry</t>
-  </si>
-  <si>
-    <t>TEST_04: Testing Sandwiches</t>
-  </si>
-  <si>
-    <t>TEST_03: Coffee Cake</t>
-  </si>
-  <si>
-    <t>TEST_02: Something</t>
-  </si>
-  <si>
-    <t>TEST_01: Introduction</t>
-  </si>
-  <si>
-    <t>Gather Design</t>
-  </si>
-  <si>
-    <t>In Progress</t>
-  </si>
-  <si>
-    <t>Kamini Patel</t>
-  </si>
-  <si>
-    <t>Kenneth Kui</t>
+    <t>Bug | Major | API Timeout</t>
+  </si>
+  <si>
+    <t>Bug | Minor | UI Issue</t>
+  </si>
+  <si>
+    <t>Bug | Critical | Performance Degradation</t>
+  </si>
+  <si>
+    <t>Bug | Critical | Backend Failure</t>
+  </si>
+  <si>
+    <t>Bug | Minor | Data Loss</t>
+  </si>
+  <si>
+    <t>Bug | Major | Backend Failure</t>
   </si>
   <si>
     <t>Arian Fooladray</t>
   </si>
   <si>
-    <t>2024-12-06T00:00:00Z</t>
-  </si>
-  <si>
-    <t>2024-12-02T00:00:00Z</t>
-  </si>
-  <si>
-    <t>2024-12-05T00:00:00Z</t>
-  </si>
-  <si>
-    <t>2024-12-04T00:00:00Z</t>
-  </si>
-  <si>
-    <t>2024-12-03T00:00:00Z</t>
-  </si>
-  <si>
-    <t>Something something</t>
-  </si>
-  <si>
-    <t>Design Finalize</t>
-  </si>
-  <si>
-    <t>Bug | Critical | Login Error</t>
-  </si>
-  <si>
-    <t>2024-12-07T00:00:00Z</t>
-  </si>
-  <si>
-    <t>2024-12-13T00:00:00Z</t>
-  </si>
-  <si>
-    <t>2024-12-12T00:00:00Z</t>
+    <t>Priththiha Nemikumar</t>
+  </si>
+  <si>
+    <t>2024-12-20T00:00:00Z</t>
+  </si>
+  <si>
+    <t>1 - Critical</t>
   </si>
 </sst>
 </file>
@@ -490,7 +517,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -524,28 +551,206 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2">
-        <v>940</v>
+        <v>988</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <v>987</v>
+      </c>
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <v>986</v>
+      </c>
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>985</v>
+      </c>
+      <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2">
-        <v>3</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>984</v>
+      </c>
+      <c r="B6" t="s">
         <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <v>992</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <v>990</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <v>1005</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10">
+        <v>991</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -555,7 +760,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -589,45 +794,48 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2">
-        <v>992</v>
+        <v>945</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="G2">
         <v>2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3">
-        <v>990</v>
+        <v>993</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -635,22 +843,22 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -658,140 +866,28 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5">
-        <v>988</v>
+        <v>960</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="G5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6">
-        <v>987</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7">
-        <v>986</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8">
-        <v>985</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9">
-        <v>984</v>
-      </c>
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10">
-        <v>991</v>
-      </c>
-      <c r="B10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -801,7 +897,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -835,74 +931,262 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2">
-        <v>993</v>
+        <v>940</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2" t="s">
         <v>34</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2">
-        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3">
-        <v>1006</v>
+        <v>926</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="G3">
         <v>2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4">
-        <v>960</v>
+        <v>927</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>12</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>929</v>
+      </c>
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>930</v>
+      </c>
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <v>933</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <v>934</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <v>932</v>
+      </c>
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10">
+        <v>931</v>
+      </c>
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="H10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
+        <v>928</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Back End/work_items_due_dates.xlsx
+++ b/Back End/work_items_due_dates.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="43">
   <si>
     <t>ID</t>
   </si>
@@ -42,21 +42,18 @@
     <t>Severity</t>
   </si>
   <si>
+    <t>TEST_02: Something</t>
+  </si>
+  <si>
+    <t>TEST_01: Introduction</t>
+  </si>
+  <si>
     <t>TEST_05: Strawberry</t>
   </si>
   <si>
     <t>TEST_04: Testing Sandwiches</t>
   </si>
   <si>
-    <t>TEST_03: Coffee Cake</t>
-  </si>
-  <si>
-    <t>TEST_02: Something</t>
-  </si>
-  <si>
-    <t>TEST_01: Introduction</t>
-  </si>
-  <si>
     <t>Creating BRD</t>
   </si>
   <si>
@@ -69,39 +66,36 @@
     <t>Gather Design</t>
   </si>
   <si>
+    <t>In Progress</t>
+  </si>
+  <si>
     <t>New</t>
   </si>
   <si>
-    <t>In Progress</t>
-  </si>
-  <si>
     <t>Kenneth Kui</t>
   </si>
   <si>
+    <t>Priththiha Nemikumar</t>
+  </si>
+  <si>
     <t>Kamini Patel</t>
   </si>
   <si>
+    <t>2024-12-03T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2024-12-02T00:00:00Z</t>
+  </si>
+  <si>
     <t>2024-12-06T00:00:00Z</t>
   </si>
   <si>
     <t>2024-12-05T00:00:00Z</t>
   </si>
   <si>
-    <t>2024-12-04T00:00:00Z</t>
-  </si>
-  <si>
-    <t>2024-12-03T00:00:00Z</t>
-  </si>
-  <si>
-    <t>2024-12-02T00:00:00Z</t>
-  </si>
-  <si>
     <t>Preet Patel</t>
   </si>
   <si>
-    <t>QA | Sure, whatever</t>
-  </si>
-  <si>
     <t>Something something</t>
   </si>
   <si>
@@ -111,12 +105,12 @@
     <t>Bug | Critical | Login Error</t>
   </si>
   <si>
+    <t>2024-12-07T00:00:00Z</t>
+  </si>
+  <si>
     <t>2024-12-13T00:00:00Z</t>
   </si>
   <si>
-    <t>2024-12-07T00:00:00Z</t>
-  </si>
-  <si>
     <t>2024-12-12T00:00:00Z</t>
   </si>
   <si>
@@ -144,10 +138,7 @@
     <t>Bug | Major | Backend Failure</t>
   </si>
   <si>
-    <t>Arian Fooladray</t>
-  </si>
-  <si>
-    <t>Priththiha Nemikumar</t>
+    <t>afooladray@fgfbrands.com</t>
   </si>
   <si>
     <t>2024-12-20T00:00:00Z</t>
@@ -517,7 +508,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -551,19 +542,22 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
       </c>
       <c r="E2" t="s">
         <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -571,22 +565,22 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
         <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -594,13 +588,13 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
         <v>19</v>
@@ -609,7 +603,7 @@
         <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -617,22 +611,22 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
         <v>24</v>
       </c>
       <c r="F5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -640,7 +634,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6">
-        <v>984</v>
+        <v>992</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
@@ -649,13 +643,13 @@
         <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -663,22 +657,22 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -686,22 +680,22 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8">
-        <v>990</v>
+        <v>1005</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -709,47 +703,24 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9">
-        <v>1005</v>
+        <v>991</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10">
-        <v>991</v>
-      </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10">
         <v>2</v>
       </c>
     </row>
@@ -760,7 +731,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -794,48 +765,45 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2">
-        <v>945</v>
+        <v>993</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G2">
         <v>2</v>
-      </c>
-      <c r="H2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3">
-        <v>993</v>
+        <v>1006</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -843,51 +811,28 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4">
-        <v>1006</v>
+        <v>960</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
         <v>31</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5">
-        <v>960</v>
-      </c>
-      <c r="B5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5">
         <v>1</v>
       </c>
-      <c r="H5" t="s">
-        <v>34</v>
+      <c r="H4" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -934,25 +879,25 @@
         <v>940</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G2">
         <v>3</v>
       </c>
       <c r="H2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -960,25 +905,25 @@
         <v>926</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G3">
         <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -986,25 +931,25 @@
         <v>927</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
         <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1012,25 +957,25 @@
         <v>929</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
         <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1038,25 +983,25 @@
         <v>930</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
         <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G6">
         <v>3</v>
       </c>
       <c r="H6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1064,25 +1009,25 @@
         <v>933</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
         <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1090,25 +1035,25 @@
         <v>934</v>
       </c>
       <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
         <v>40</v>
       </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" t="s">
-        <v>42</v>
-      </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G8">
         <v>3</v>
       </c>
       <c r="H8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1116,25 +1061,25 @@
         <v>932</v>
       </c>
       <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" t="s">
         <v>41</v>
       </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" t="s">
-        <v>44</v>
-      </c>
       <c r="F9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G9">
         <v>3</v>
       </c>
       <c r="H9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1142,25 +1087,25 @@
         <v>931</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G10">
         <v>3</v>
       </c>
       <c r="H10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1168,25 +1113,25 @@
         <v>928</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
         <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Back End/work_items_due_dates.xlsx
+++ b/Back End/work_items_due_dates.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="43">
   <si>
     <t>ID</t>
   </si>
@@ -42,12 +42,12 @@
     <t>Severity</t>
   </si>
   <si>
+    <t>TEST_01: Introduction</t>
+  </si>
+  <si>
     <t>TEST_02: Something</t>
   </si>
   <si>
-    <t>TEST_01: Introduction</t>
-  </si>
-  <si>
     <t>TEST_05: Strawberry</t>
   </si>
   <si>
@@ -81,12 +81,12 @@
     <t>Kamini Patel</t>
   </si>
   <si>
+    <t>2024-12-02T00:00:00Z</t>
+  </si>
+  <si>
     <t>2024-12-03T00:00:00Z</t>
   </si>
   <si>
-    <t>2024-12-02T00:00:00Z</t>
-  </si>
-  <si>
     <t>2024-12-06T00:00:00Z</t>
   </si>
   <si>
@@ -117,6 +117,9 @@
     <t>3 - Medium</t>
   </si>
   <si>
+    <t>Bug | Minor | Data Loss</t>
+  </si>
+  <si>
     <t>Bug | Minor | Performance Degradation</t>
   </si>
   <si>
@@ -130,9 +133,6 @@
   </si>
   <si>
     <t>Bug | Critical | Backend Failure</t>
-  </si>
-  <si>
-    <t>Bug | Minor | Data Loss</t>
   </si>
   <si>
     <t>Bug | Major | Backend Failure</t>
@@ -542,7 +542,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -550,9 +550,6 @@
       <c r="C2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
       <c r="E2" t="s">
         <v>21</v>
       </c>
@@ -565,7 +562,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -692,7 +689,7 @@
         <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F8" t="s">
         <v>25</v>
@@ -876,16 +873,13 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2">
-        <v>940</v>
+        <v>934</v>
       </c>
       <c r="B2" t="s">
         <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
         <v>41</v>
@@ -902,16 +896,13 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3">
-        <v>926</v>
+        <v>940</v>
       </c>
       <c r="B3" t="s">
         <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
         <v>41</v>
@@ -920,7 +911,7 @@
         <v>25</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H3" t="s">
         <v>32</v>
@@ -928,7 +919,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B4" t="s">
         <v>35</v>
@@ -946,7 +937,7 @@
         <v>25</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H4" t="s">
         <v>32</v>
@@ -954,7 +945,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="B5" t="s">
         <v>36</v>
@@ -980,7 +971,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B6" t="s">
         <v>37</v>
@@ -998,7 +989,7 @@
         <v>25</v>
       </c>
       <c r="G6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H6" t="s">
         <v>32</v>
@@ -1006,10 +997,10 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
         <v>17</v>
@@ -1024,18 +1015,18 @@
         <v>25</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H7" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
         <v>17</v>
@@ -1050,10 +1041,10 @@
         <v>25</v>
       </c>
       <c r="G8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1087,7 +1078,7 @@
         <v>931</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>

--- a/Back End/work_items_due_dates.xlsx
+++ b/Back End/work_items_due_dates.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="48">
   <si>
     <t>ID</t>
   </si>
@@ -42,9 +42,15 @@
     <t>Severity</t>
   </si>
   <si>
+    <t>Bug | Minor | Performance Degradation</t>
+  </si>
+  <si>
     <t>TEST_01: Introduction</t>
   </si>
   <si>
+    <t>Bug | Minor | Data Loss</t>
+  </si>
+  <si>
     <t>TEST_02: Something</t>
   </si>
   <si>
@@ -60,9 +66,33 @@
     <t>Planning</t>
   </si>
   <si>
+    <t>Something something</t>
+  </si>
+  <si>
     <t>Design Start</t>
   </si>
   <si>
+    <t>Design Finalize</t>
+  </si>
+  <si>
+    <t>Bug | Major | API Timeout</t>
+  </si>
+  <si>
+    <t>Bug | Minor | UI Issue</t>
+  </si>
+  <si>
+    <t>Bug | Critical | Performance Degradation</t>
+  </si>
+  <si>
+    <t>Bug | Critical | Backend Failure</t>
+  </si>
+  <si>
+    <t>Bug | Critical | Login Error</t>
+  </si>
+  <si>
+    <t>Bug | Major | Backend Failure</t>
+  </si>
+  <si>
     <t>Gather Design</t>
   </si>
   <si>
@@ -72,13 +102,22 @@
     <t>New</t>
   </si>
   <si>
+    <t>Priththiha Nemikumar</t>
+  </si>
+  <si>
+    <t>Kamini Patel</t>
+  </si>
+  <si>
     <t>Kenneth Kui</t>
   </si>
   <si>
-    <t>Priththiha Nemikumar</t>
-  </si>
-  <si>
-    <t>Kamini Patel</t>
+    <t>Preet Patel</t>
+  </si>
+  <si>
+    <t>afooladray@fgfbrands.com</t>
+  </si>
+  <si>
+    <t>2024-12-20T00:00:00Z</t>
   </si>
   <si>
     <t>2024-12-02T00:00:00Z</t>
@@ -93,18 +132,6 @@
     <t>2024-12-05T00:00:00Z</t>
   </si>
   <si>
-    <t>Preet Patel</t>
-  </si>
-  <si>
-    <t>Something something</t>
-  </si>
-  <si>
-    <t>Design Finalize</t>
-  </si>
-  <si>
-    <t>Bug | Critical | Login Error</t>
-  </si>
-  <si>
     <t>2024-12-07T00:00:00Z</t>
   </si>
   <si>
@@ -117,34 +144,22 @@
     <t>3 - Medium</t>
   </si>
   <si>
-    <t>Bug | Minor | Data Loss</t>
-  </si>
-  <si>
-    <t>Bug | Minor | Performance Degradation</t>
-  </si>
-  <si>
-    <t>Bug | Major | API Timeout</t>
-  </si>
-  <si>
-    <t>Bug | Minor | UI Issue</t>
-  </si>
-  <si>
-    <t>Bug | Critical | Performance Degradation</t>
-  </si>
-  <si>
-    <t>Bug | Critical | Backend Failure</t>
-  </si>
-  <si>
-    <t>Bug | Major | Backend Failure</t>
-  </si>
-  <si>
-    <t>afooladray@fgfbrands.com</t>
-  </si>
-  <si>
-    <t>2024-12-20T00:00:00Z</t>
-  </si>
-  <si>
     <t>1 - Critical</t>
+  </si>
+  <si>
+    <t>QA | Critical | Ok I guess</t>
+  </si>
+  <si>
+    <t>QA | Critital | Yeah</t>
+  </si>
+  <si>
+    <t>Bug | Critical | API Timeout</t>
+  </si>
+  <si>
+    <t>Bug | Major | Memory Leak</t>
+  </si>
+  <si>
+    <t>2024-12-27T00:00:00Z</t>
   </si>
 </sst>
 </file>
@@ -508,7 +523,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -542,42 +557,48 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2">
-        <v>984</v>
+        <v>940</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="H2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -585,45 +606,48 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4">
-        <v>988</v>
+        <v>934</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="H4" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -631,22 +655,22 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -654,22 +678,22 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="F7" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -677,22 +701,22 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8">
-        <v>1005</v>
+        <v>992</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -700,25 +724,351 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
       </c>
       <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10">
+        <v>993</v>
+      </c>
+      <c r="B10" t="s">
         <v>16</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
+        <v>1005</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <v>1006</v>
+      </c>
+      <c r="B12" t="s">
         <v>18</v>
       </c>
-      <c r="E9" t="s">
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13">
+        <v>926</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14">
+        <v>927</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15">
+        <v>929</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16">
+        <v>930</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
+      <c r="H16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17">
+        <v>933</v>
+      </c>
+      <c r="B17" t="s">
         <v>23</v>
       </c>
-      <c r="F9" t="s">
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18">
+        <v>932</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18">
+        <v>3</v>
+      </c>
+      <c r="H18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19">
+        <v>931</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19">
+        <v>3</v>
+      </c>
+      <c r="H19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20">
+        <v>928</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21">
+        <v>991</v>
+      </c>
+      <c r="B21" t="s">
         <v>25</v>
       </c>
-      <c r="G9">
-        <v>2</v>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22">
+        <v>960</v>
+      </c>
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" t="s">
+        <v>31</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -728,7 +1078,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -762,74 +1112,184 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2">
-        <v>993</v>
+        <v>916</v>
       </c>
       <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" t="s">
         <v>26</v>
       </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G2">
         <v>2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3">
-        <v>1006</v>
+        <v>925</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4">
-        <v>960</v>
+        <v>920</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>918</v>
+      </c>
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>921</v>
+      </c>
+      <c r="B6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6">
         <v>1</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <v>922</v>
+      </c>
+      <c r="B7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>32</v>
+      </c>
+      <c r="E7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <v>923</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -839,293 +1299,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2">
-        <v>934</v>
-      </c>
-      <c r="B2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2">
-        <v>3</v>
-      </c>
-      <c r="H2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3">
-        <v>940</v>
-      </c>
-      <c r="B3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3">
-        <v>3</v>
-      </c>
-      <c r="H3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4">
-        <v>926</v>
-      </c>
-      <c r="B4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
-      <c r="H4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5">
-        <v>927</v>
-      </c>
-      <c r="B5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6">
-        <v>929</v>
-      </c>
-      <c r="B6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7">
-        <v>930</v>
-      </c>
-      <c r="B7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7">
-        <v>3</v>
-      </c>
-      <c r="H7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8">
-        <v>933</v>
-      </c>
-      <c r="B8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9">
-        <v>932</v>
-      </c>
-      <c r="B9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9">
-        <v>3</v>
-      </c>
-      <c r="H9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10">
-        <v>931</v>
-      </c>
-      <c r="B10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10">
-        <v>3</v>
-      </c>
-      <c r="H10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11">
-        <v>928</v>
-      </c>
-      <c r="B11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Back End/work_items_due_dates.xlsx
+++ b/Back End/work_items_due_dates.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="56">
   <si>
     <t>ID</t>
   </si>
@@ -42,6 +42,9 @@
     <t>Severity</t>
   </si>
   <si>
+    <t>Bug | Not Sending Emails on Prod</t>
+  </si>
+  <si>
     <t>Bug | Minor | Performance Degradation</t>
   </si>
   <si>
@@ -96,12 +99,12 @@
     <t>Gather Design</t>
   </si>
   <si>
+    <t>New</t>
+  </si>
+  <si>
     <t>In Progress</t>
   </si>
   <si>
-    <t>New</t>
-  </si>
-  <si>
     <t>Priththiha Nemikumar</t>
   </si>
   <si>
@@ -147,6 +150,15 @@
     <t>1 - Critical</t>
   </si>
   <si>
+    <t>Sending passowords in emails not working</t>
+  </si>
+  <si>
+    <t>Responsiveness Issues</t>
+  </si>
+  <si>
+    <t>Add Dropdown Feature</t>
+  </si>
+  <si>
     <t>QA | Critical | Ok I guess</t>
   </si>
   <si>
@@ -159,7 +171,19 @@
     <t>Bug | Major | Memory Leak</t>
   </si>
   <si>
+    <t>2024-12-24T00:00:00Z</t>
+  </si>
+  <si>
     <t>2024-12-27T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2024-12-26T00:00:00Z</t>
+  </si>
+  <si>
+    <t>Not able to assign two routes to one employee</t>
+  </si>
+  <si>
+    <t>2024-12-30T00:00:00Z</t>
   </si>
 </sst>
 </file>
@@ -523,7 +547,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -557,39 +581,36 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2">
-        <v>940</v>
+        <v>1111</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3">
-        <v>984</v>
+        <v>940</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
         <v>29</v>
@@ -598,79 +619,82 @@
         <v>34</v>
       </c>
       <c r="F3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="H3" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4">
-        <v>934</v>
+        <v>984</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G4">
-        <v>3</v>
-      </c>
-      <c r="H4" t="s">
-        <v>41</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5">
-        <v>985</v>
+        <v>934</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="H5" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E6" t="s">
         <v>36</v>
       </c>
       <c r="F6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -678,22 +702,22 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
         <v>37</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -701,22 +725,22 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8">
-        <v>992</v>
+        <v>987</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -724,22 +748,22 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -747,22 +771,22 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -770,7 +794,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11">
-        <v>1005</v>
+        <v>993</v>
       </c>
       <c r="B11" t="s">
         <v>17</v>
@@ -779,13 +803,13 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E11" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -793,7 +817,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B12" t="s">
         <v>18</v>
@@ -802,13 +826,13 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -816,7 +840,7 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13">
-        <v>926</v>
+        <v>1006</v>
       </c>
       <c r="B13" t="s">
         <v>19</v>
@@ -828,21 +852,18 @@
         <v>32</v>
       </c>
       <c r="E13" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G13">
         <v>2</v>
-      </c>
-      <c r="H13" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B14" t="s">
         <v>20</v>
@@ -851,24 +872,24 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="B15" t="s">
         <v>21</v>
@@ -877,24 +898,24 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B16" t="s">
         <v>22</v>
@@ -903,24 +924,24 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="B17" t="s">
         <v>23</v>
@@ -929,16 +950,16 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H17" t="s">
         <v>42</v>
@@ -946,7 +967,7 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="B18" t="s">
         <v>24</v>
@@ -955,120 +976,146 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H18" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G19">
         <v>3</v>
       </c>
       <c r="H19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20">
-        <v>928</v>
+        <v>931</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21">
-        <v>991</v>
+        <v>928</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G21">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="H21" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22">
+        <v>991</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23">
         <v>960</v>
       </c>
-      <c r="B22" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>30</v>
-      </c>
-      <c r="E22" t="s">
-        <v>40</v>
-      </c>
-      <c r="F22" t="s">
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" t="s">
         <v>31</v>
       </c>
-      <c r="G22">
+      <c r="E23" t="s">
+        <v>41</v>
+      </c>
+      <c r="F23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23">
         <v>1</v>
       </c>
-      <c r="H22" t="s">
-        <v>41</v>
+      <c r="H23" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1078,7 +1125,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1112,140 +1159,128 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2">
-        <v>916</v>
+        <v>1117</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G2">
         <v>2</v>
       </c>
       <c r="H2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3">
-        <v>925</v>
+        <v>1114</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4">
-        <v>920</v>
+        <v>1113</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
       </c>
-      <c r="D4" t="s">
-        <v>31</v>
-      </c>
       <c r="E4" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G4">
-        <v>2</v>
-      </c>
-      <c r="H4" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G5">
         <v>2</v>
       </c>
       <c r="H5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6">
-        <v>921</v>
+        <v>925</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E6" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
         <v>27</v>
@@ -1254,42 +1289,120 @@
         <v>32</v>
       </c>
       <c r="E7" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G7">
         <v>2</v>
       </c>
       <c r="H7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8">
+        <v>918</v>
+      </c>
+      <c r="B8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <v>921</v>
+      </c>
+      <c r="B9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10">
+        <v>922</v>
+      </c>
+      <c r="B10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
         <v>923</v>
       </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8">
-        <v>2</v>
-      </c>
-      <c r="H8" t="s">
-        <v>41</v>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1299,12 +1412,62 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2">
+        <v>1118</v>
+      </c>
+      <c r="B2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>